--- a/data_year/zb/科技/公有经济企事业单位专业技术人员数.xlsx
+++ b/data_year/zb/科技/公有经济企事业单位专业技术人员数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,388 +473,108 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28874159</v>
+        <v>28157323</v>
       </c>
       <c r="C2" t="n">
-        <v>28874000</v>
+        <v>28160000</v>
       </c>
       <c r="D2" t="n">
-        <v>670000</v>
+        <v>688651</v>
       </c>
       <c r="E2" t="n">
-        <v>3372000</v>
+        <v>3840124</v>
       </c>
       <c r="F2" t="n">
-        <v>5551000</v>
+        <v>5415126</v>
       </c>
       <c r="G2" t="n">
-        <v>11783000</v>
+        <v>12413530</v>
       </c>
       <c r="H2" t="n">
-        <v>270000</v>
+        <v>339676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28477431</v>
+        <v>29186650</v>
       </c>
       <c r="C3" t="n">
-        <v>21698037</v>
+        <v>23569312</v>
       </c>
       <c r="D3" t="n">
-        <v>674644</v>
+        <v>714489</v>
       </c>
       <c r="E3" t="n">
-        <v>3390233</v>
+        <v>4107373</v>
       </c>
       <c r="F3" t="n">
-        <v>5316327</v>
+        <v>5715561</v>
       </c>
       <c r="G3" t="n">
-        <v>12051279</v>
+        <v>12628036</v>
       </c>
       <c r="H3" t="n">
-        <v>265554</v>
+        <v>403853</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>28344158</v>
-      </c>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>21860024</v>
+        <v>29774237</v>
       </c>
       <c r="D4" t="n">
-        <v>666998</v>
+        <v>711841</v>
       </c>
       <c r="E4" t="n">
-        <v>3402326</v>
+        <v>4144889</v>
       </c>
       <c r="F4" t="n">
-        <v>5289166</v>
+        <v>5950025</v>
       </c>
       <c r="G4" t="n">
-        <v>12238842</v>
+        <v>12651248</v>
       </c>
       <c r="H4" t="n">
-        <v>262692</v>
+        <v>416231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>27745585</v>
-      </c>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>21739699</v>
+        <v>30259517</v>
       </c>
       <c r="D5" t="n">
-        <v>683437</v>
+        <v>733474</v>
       </c>
       <c r="E5" t="n">
-        <v>3441109</v>
+        <v>4276401</v>
       </c>
       <c r="F5" t="n">
-        <v>4992867</v>
+        <v>6140240</v>
       </c>
       <c r="G5" t="n">
-        <v>12346790</v>
+        <v>12807355</v>
       </c>
       <c r="H5" t="n">
-        <v>275496</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>27504073</v>
-      </c>
-      <c r="C6" t="n">
-        <v>21783019</v>
-      </c>
-      <c r="D6" t="n">
-        <v>704576</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3532282</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4807869</v>
-      </c>
-      <c r="G6" t="n">
-        <v>12456290</v>
-      </c>
-      <c r="H6" t="n">
-        <v>282002</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>27567260</v>
-      </c>
-      <c r="C7" t="n">
-        <v>27567260</v>
-      </c>
-      <c r="D7" t="n">
-        <v>705700</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3581200</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4791200</v>
-      </c>
-      <c r="G7" t="n">
-        <v>12589400</v>
-      </c>
-      <c r="H7" t="n">
-        <v>311000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>27739287</v>
-      </c>
-      <c r="C8" t="n">
-        <v>22298171</v>
-      </c>
-      <c r="D8" t="n">
-        <v>701930</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3612091</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4893672</v>
-      </c>
-      <c r="G8" t="n">
-        <v>12763750</v>
-      </c>
-      <c r="H8" t="n">
-        <v>326728</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>28014657</v>
-      </c>
-      <c r="C9" t="n">
-        <v>22545110</v>
-      </c>
-      <c r="D9" t="n">
-        <v>701481</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3640554</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5017747</v>
-      </c>
-      <c r="G9" t="n">
-        <v>12836120</v>
-      </c>
-      <c r="H9" t="n">
-        <v>349208</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>28635696</v>
-      </c>
-      <c r="C10" t="n">
-        <v>23098880</v>
-      </c>
-      <c r="D10" t="n">
-        <v>715774</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3888273</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5176798</v>
-      </c>
-      <c r="G10" t="n">
-        <v>12949380</v>
-      </c>
-      <c r="H10" t="n">
-        <v>368655</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>28879635</v>
-      </c>
-      <c r="C11" t="n">
-        <v>23211769</v>
-      </c>
-      <c r="D11" t="n">
-        <v>714720</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3929037</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5310622</v>
-      </c>
-      <c r="G11" t="n">
-        <v>12869240</v>
-      </c>
-      <c r="H11" t="n">
-        <v>388150</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>28157323</v>
-      </c>
-      <c r="C12" t="n">
-        <v>28160000</v>
-      </c>
-      <c r="D12" t="n">
-        <v>688651</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3840124</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5415126</v>
-      </c>
-      <c r="G12" t="n">
-        <v>12413530</v>
-      </c>
-      <c r="H12" t="n">
-        <v>339676</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>29186650</v>
-      </c>
-      <c r="C13" t="n">
-        <v>23569312</v>
-      </c>
-      <c r="D13" t="n">
-        <v>714489</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4107373</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5715561</v>
-      </c>
-      <c r="G13" t="n">
-        <v>12628036</v>
-      </c>
-      <c r="H13" t="n">
-        <v>403853</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>29774237</v>
-      </c>
-      <c r="D14" t="n">
-        <v>711841</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4144889</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5950025</v>
-      </c>
-      <c r="G14" t="n">
-        <v>12651248</v>
-      </c>
-      <c r="H14" t="n">
-        <v>416231</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>30259517</v>
-      </c>
-      <c r="D15" t="n">
-        <v>733474</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4276401</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6140240</v>
-      </c>
-      <c r="G15" t="n">
-        <v>12807355</v>
-      </c>
-      <c r="H15" t="n">
         <v>432018</v>
       </c>
     </row>
